--- a/data til pbi/Passasjertall_busslinjer_telemark.xlsx
+++ b/data til pbi/Passasjertall_busslinjer_telemark.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\bypakke_grenland\data til pbi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E8903E-8A1A-4EC1-88E1-3E321375B8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95EC84A-3D6E-4B44-93A1-4821FACE42AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="585" windowWidth="23850" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="450" windowWidth="23025" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Passasjertall_metropendel" sheetId="1" r:id="rId1"/>
+    <sheet name="Passasjertall" sheetId="1" r:id="rId1"/>
     <sheet name="Ark1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Passasjertall_metropendel!$A$1:$E$5592</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Passasjertall!$A$1:$E$5592</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>

--- a/data til pbi/Passasjertall_busslinjer_telemark.xlsx
+++ b/data til pbi/Passasjertall_busslinjer_telemark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\bypakke_grenland\data til pbi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B7FB64-DCF0-42C9-9351-854AF3448D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EC630B-EF2C-423F-955D-0D2CEDE6D6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5505" yWindow="165" windowWidth="23130" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1309,7 +1309,7 @@
   <dimension ref="A1:H5604"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD904"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data til pbi/Passasjertall_busslinjer_telemark.xlsx
+++ b/data til pbi/Passasjertall_busslinjer_telemark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\bypakke_grenland\data til pbi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E7DB97-109D-4572-A54A-4C6269A5F84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049CC504-C675-4596-931C-544A6B56F09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27570" yWindow="690" windowWidth="25800" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Ark1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Passasjertall!$A$1:$E$6079</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Passasjertall!$A$1:$E$5962</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4851" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4734" uniqueCount="147">
   <si>
     <t>Linje</t>
   </si>
@@ -465,9 +465,6 @@
   </si>
   <si>
     <t>2024/10</t>
-  </si>
-  <si>
-    <t>2024/11</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1315,7 @@
   <dimension ref="A1:H5962"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD1262"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,21 +1511,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>8001</v>
-      </c>
-      <c r="B12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12">
-        <v>2024</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>15962</v>
-      </c>
+      <c r="E12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1701,21 +1684,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>8002</v>
-      </c>
-      <c r="B23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23">
-        <v>2024</v>
-      </c>
-      <c r="D23">
-        <v>11</v>
-      </c>
-      <c r="E23">
-        <v>11208</v>
-      </c>
+      <c r="E23"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1888,21 +1857,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>8003</v>
-      </c>
-      <c r="B34" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34">
-        <v>2024</v>
-      </c>
-      <c r="D34">
-        <v>11</v>
-      </c>
-      <c r="E34">
-        <v>11415</v>
-      </c>
+      <c r="E34"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -2075,21 +2030,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>8004</v>
-      </c>
-      <c r="B45" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45">
-        <v>2024</v>
-      </c>
-      <c r="D45">
-        <v>11</v>
-      </c>
-      <c r="E45">
-        <v>2101</v>
-      </c>
+      <c r="E45"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -2262,21 +2203,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>8005</v>
-      </c>
-      <c r="B56" t="s">
-        <v>147</v>
-      </c>
-      <c r="C56">
-        <v>2024</v>
-      </c>
-      <c r="D56">
-        <v>11</v>
-      </c>
-      <c r="E56">
-        <v>1640</v>
-      </c>
+      <c r="E56"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -2449,21 +2376,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>8006</v>
-      </c>
-      <c r="B67" t="s">
-        <v>147</v>
-      </c>
-      <c r="C67">
-        <v>2024</v>
-      </c>
-      <c r="D67">
-        <v>11</v>
-      </c>
-      <c r="E67">
-        <v>1721</v>
-      </c>
+      <c r="E67"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
@@ -2636,21 +2549,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>8007</v>
-      </c>
-      <c r="B78" t="s">
-        <v>147</v>
-      </c>
-      <c r="C78">
-        <v>2024</v>
-      </c>
-      <c r="D78">
-        <v>11</v>
-      </c>
-      <c r="E78">
-        <v>1148</v>
-      </c>
+      <c r="E78"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
@@ -2823,21 +2722,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>8008</v>
-      </c>
-      <c r="B89" t="s">
-        <v>147</v>
-      </c>
-      <c r="C89">
-        <v>2024</v>
-      </c>
-      <c r="D89">
-        <v>11</v>
-      </c>
-      <c r="E89">
-        <v>284</v>
-      </c>
+      <c r="E89"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
@@ -3010,21 +2895,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>8010</v>
-      </c>
-      <c r="B100" t="s">
-        <v>147</v>
-      </c>
-      <c r="C100">
-        <v>2024</v>
-      </c>
-      <c r="D100">
-        <v>11</v>
-      </c>
-      <c r="E100">
-        <v>752</v>
-      </c>
+      <c r="E100"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
@@ -3197,21 +3068,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>8011</v>
-      </c>
-      <c r="B111" t="s">
-        <v>147</v>
-      </c>
-      <c r="C111">
-        <v>2024</v>
-      </c>
-      <c r="D111">
-        <v>11</v>
-      </c>
-      <c r="E111">
-        <v>218</v>
-      </c>
+      <c r="E111"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
@@ -3384,21 +3241,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>8012</v>
-      </c>
-      <c r="B122" t="s">
-        <v>147</v>
-      </c>
-      <c r="C122">
-        <v>2024</v>
-      </c>
-      <c r="D122">
-        <v>11</v>
-      </c>
-      <c r="E122">
-        <v>144</v>
-      </c>
+      <c r="E122"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
@@ -3571,21 +3414,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>8013</v>
-      </c>
-      <c r="B133" t="s">
-        <v>147</v>
-      </c>
-      <c r="C133">
-        <v>2024</v>
-      </c>
-      <c r="D133">
-        <v>11</v>
-      </c>
-      <c r="E133">
-        <v>217</v>
-      </c>
+      <c r="E133"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
@@ -3758,21 +3587,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>8014</v>
-      </c>
-      <c r="B144" t="s">
-        <v>147</v>
-      </c>
-      <c r="C144">
-        <v>2024</v>
-      </c>
-      <c r="D144">
-        <v>11</v>
-      </c>
-      <c r="E144">
-        <v>171</v>
-      </c>
+      <c r="E144"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
@@ -3945,21 +3760,7 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>8015</v>
-      </c>
-      <c r="B155" t="s">
-        <v>147</v>
-      </c>
-      <c r="C155">
-        <v>2024</v>
-      </c>
-      <c r="D155">
-        <v>11</v>
-      </c>
-      <c r="E155">
-        <v>136</v>
-      </c>
+      <c r="E155"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
@@ -4132,21 +3933,7 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>8016</v>
-      </c>
-      <c r="B166" t="s">
-        <v>147</v>
-      </c>
-      <c r="C166">
-        <v>2024</v>
-      </c>
-      <c r="D166">
-        <v>11</v>
-      </c>
-      <c r="E166">
-        <v>121</v>
-      </c>
+      <c r="E166"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
@@ -4438,21 +4225,7 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>8084</v>
-      </c>
-      <c r="B184" t="s">
-        <v>147</v>
-      </c>
-      <c r="C184">
-        <v>2024</v>
-      </c>
-      <c r="D184">
-        <v>11</v>
-      </c>
-      <c r="E184">
-        <v>67</v>
-      </c>
+      <c r="E184"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
@@ -4625,21 +4398,7 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>8101</v>
-      </c>
-      <c r="B195" t="s">
-        <v>147</v>
-      </c>
-      <c r="C195">
-        <v>2024</v>
-      </c>
-      <c r="D195">
-        <v>11</v>
-      </c>
-      <c r="E195">
-        <v>65</v>
-      </c>
+      <c r="E195"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
@@ -4812,21 +4571,7 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>8102</v>
-      </c>
-      <c r="B206" t="s">
-        <v>147</v>
-      </c>
-      <c r="C206">
-        <v>2024</v>
-      </c>
-      <c r="D206">
-        <v>11</v>
-      </c>
-      <c r="E206">
-        <v>246</v>
-      </c>
+      <c r="E206"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
@@ -4999,21 +4744,7 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>8103</v>
-      </c>
-      <c r="B217" t="s">
-        <v>147</v>
-      </c>
-      <c r="C217">
-        <v>2024</v>
-      </c>
-      <c r="D217">
-        <v>11</v>
-      </c>
-      <c r="E217">
-        <v>663</v>
-      </c>
+      <c r="E217"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
@@ -5169,21 +4900,7 @@
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>8104</v>
-      </c>
-      <c r="B227" t="s">
-        <v>147</v>
-      </c>
-      <c r="C227">
-        <v>2024</v>
-      </c>
-      <c r="D227">
-        <v>11</v>
-      </c>
-      <c r="E227">
-        <v>44</v>
-      </c>
+      <c r="E227"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
@@ -5339,21 +5056,7 @@
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>8111</v>
-      </c>
-      <c r="B237" t="s">
-        <v>147</v>
-      </c>
-      <c r="C237">
-        <v>2024</v>
-      </c>
-      <c r="D237">
-        <v>11</v>
-      </c>
-      <c r="E237">
-        <v>48</v>
-      </c>
+      <c r="E237"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
@@ -5509,21 +5212,7 @@
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>8113</v>
-      </c>
-      <c r="B247" t="s">
-        <v>147</v>
-      </c>
-      <c r="C247">
-        <v>2024</v>
-      </c>
-      <c r="D247">
-        <v>11</v>
-      </c>
-      <c r="E247">
-        <v>2</v>
-      </c>
+      <c r="E247"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
@@ -5679,21 +5368,7 @@
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>8115</v>
-      </c>
-      <c r="B257" t="s">
-        <v>147</v>
-      </c>
-      <c r="C257">
-        <v>2024</v>
-      </c>
-      <c r="D257">
-        <v>11</v>
-      </c>
-      <c r="E257">
-        <v>29</v>
-      </c>
+      <c r="E257"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
@@ -5866,21 +5541,7 @@
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268">
-        <v>8116</v>
-      </c>
-      <c r="B268" t="s">
-        <v>147</v>
-      </c>
-      <c r="C268">
-        <v>2024</v>
-      </c>
-      <c r="D268">
-        <v>11</v>
-      </c>
-      <c r="E268">
-        <v>145</v>
-      </c>
+      <c r="E268"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
@@ -6053,21 +5714,7 @@
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279">
-        <v>8117</v>
-      </c>
-      <c r="B279" t="s">
-        <v>147</v>
-      </c>
-      <c r="C279">
-        <v>2024</v>
-      </c>
-      <c r="D279">
-        <v>11</v>
-      </c>
-      <c r="E279">
-        <v>38</v>
-      </c>
+      <c r="E279"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
@@ -6223,21 +5870,7 @@
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289">
-        <v>8121</v>
-      </c>
-      <c r="B289" t="s">
-        <v>147</v>
-      </c>
-      <c r="C289">
-        <v>2024</v>
-      </c>
-      <c r="D289">
-        <v>11</v>
-      </c>
-      <c r="E289">
-        <v>76</v>
-      </c>
+      <c r="E289"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
@@ -6393,21 +6026,7 @@
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299">
-        <v>8122</v>
-      </c>
-      <c r="B299" t="s">
-        <v>147</v>
-      </c>
-      <c r="C299">
-        <v>2024</v>
-      </c>
-      <c r="D299">
-        <v>11</v>
-      </c>
-      <c r="E299">
-        <v>113</v>
-      </c>
+      <c r="E299"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
@@ -6563,21 +6182,7 @@
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309">
-        <v>8123</v>
-      </c>
-      <c r="B309" t="s">
-        <v>147</v>
-      </c>
-      <c r="C309">
-        <v>2024</v>
-      </c>
-      <c r="D309">
-        <v>11</v>
-      </c>
-      <c r="E309">
-        <v>185</v>
-      </c>
+      <c r="E309"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
@@ -6733,21 +6338,7 @@
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319">
-        <v>8127</v>
-      </c>
-      <c r="B319" t="s">
-        <v>147</v>
-      </c>
-      <c r="C319">
-        <v>2024</v>
-      </c>
-      <c r="D319">
-        <v>11</v>
-      </c>
-      <c r="E319">
-        <v>65</v>
-      </c>
+      <c r="E319"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
@@ -6903,21 +6494,7 @@
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329">
-        <v>8128</v>
-      </c>
-      <c r="B329" t="s">
-        <v>147</v>
-      </c>
-      <c r="C329">
-        <v>2024</v>
-      </c>
-      <c r="D329">
-        <v>11</v>
-      </c>
-      <c r="E329">
-        <v>19</v>
-      </c>
+      <c r="E329"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
@@ -7090,21 +6667,7 @@
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340">
-        <v>8129</v>
-      </c>
-      <c r="B340" t="s">
-        <v>147</v>
-      </c>
-      <c r="C340">
-        <v>2024</v>
-      </c>
-      <c r="D340">
-        <v>11</v>
-      </c>
-      <c r="E340">
-        <v>12</v>
-      </c>
+      <c r="E340"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
@@ -7277,21 +6840,7 @@
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351">
-        <v>8131</v>
-      </c>
-      <c r="B351" t="s">
-        <v>147</v>
-      </c>
-      <c r="C351">
-        <v>2024</v>
-      </c>
-      <c r="D351">
-        <v>11</v>
-      </c>
-      <c r="E351">
-        <v>83</v>
-      </c>
+      <c r="E351"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
@@ -7447,21 +6996,7 @@
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361">
-        <v>8132</v>
-      </c>
-      <c r="B361" t="s">
-        <v>147</v>
-      </c>
-      <c r="C361">
-        <v>2024</v>
-      </c>
-      <c r="D361">
-        <v>11</v>
-      </c>
-      <c r="E361">
-        <v>86</v>
-      </c>
+      <c r="E361"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
@@ -7617,21 +7152,7 @@
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371">
-        <v>8133</v>
-      </c>
-      <c r="B371" t="s">
-        <v>147</v>
-      </c>
-      <c r="C371">
-        <v>2024</v>
-      </c>
-      <c r="D371">
-        <v>11</v>
-      </c>
-      <c r="E371">
-        <v>174</v>
-      </c>
+      <c r="E371"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
@@ -7787,21 +7308,7 @@
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381">
-        <v>8135</v>
-      </c>
-      <c r="B381" t="s">
-        <v>147</v>
-      </c>
-      <c r="C381">
-        <v>2024</v>
-      </c>
-      <c r="D381">
-        <v>11</v>
-      </c>
-      <c r="E381">
-        <v>69</v>
-      </c>
+      <c r="E381"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
@@ -7957,21 +7464,7 @@
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391">
-        <v>8136</v>
-      </c>
-      <c r="B391" t="s">
-        <v>147</v>
-      </c>
-      <c r="C391">
-        <v>2024</v>
-      </c>
-      <c r="D391">
-        <v>11</v>
-      </c>
-      <c r="E391">
-        <v>6</v>
-      </c>
+      <c r="E391"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
@@ -8212,21 +7705,7 @@
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406">
-        <v>8141</v>
-      </c>
-      <c r="B406" t="s">
-        <v>147</v>
-      </c>
-      <c r="C406">
-        <v>2024</v>
-      </c>
-      <c r="D406">
-        <v>11</v>
-      </c>
-      <c r="E406">
-        <v>184</v>
-      </c>
+      <c r="E406"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
@@ -8399,21 +7878,7 @@
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A417">
-        <v>8142</v>
-      </c>
-      <c r="B417" t="s">
-        <v>147</v>
-      </c>
-      <c r="C417">
-        <v>2024</v>
-      </c>
-      <c r="D417">
-        <v>11</v>
-      </c>
-      <c r="E417">
-        <v>257</v>
-      </c>
+      <c r="E417"/>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
@@ -8586,21 +8051,7 @@
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428">
-        <v>8143</v>
-      </c>
-      <c r="B428" t="s">
-        <v>147</v>
-      </c>
-      <c r="C428">
-        <v>2024</v>
-      </c>
-      <c r="D428">
-        <v>11</v>
-      </c>
-      <c r="E428">
-        <v>126</v>
-      </c>
+      <c r="E428"/>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429">
@@ -8756,21 +8207,7 @@
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A438">
-        <v>8144</v>
-      </c>
-      <c r="B438" t="s">
-        <v>147</v>
-      </c>
-      <c r="C438">
-        <v>2024</v>
-      </c>
-      <c r="D438">
-        <v>11</v>
-      </c>
-      <c r="E438">
-        <v>60</v>
-      </c>
+      <c r="E438"/>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439">
@@ -8926,21 +8363,7 @@
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A448">
-        <v>8145</v>
-      </c>
-      <c r="B448" t="s">
-        <v>147</v>
-      </c>
-      <c r="C448">
-        <v>2024</v>
-      </c>
-      <c r="D448">
-        <v>11</v>
-      </c>
-      <c r="E448">
-        <v>58</v>
-      </c>
+      <c r="E448"/>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449">
@@ -9113,21 +8536,7 @@
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A459">
-        <v>8146</v>
-      </c>
-      <c r="B459" t="s">
-        <v>147</v>
-      </c>
-      <c r="C459">
-        <v>2024</v>
-      </c>
-      <c r="D459">
-        <v>11</v>
-      </c>
-      <c r="E459">
-        <v>45</v>
-      </c>
+      <c r="E459"/>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460">
@@ -9283,21 +8692,7 @@
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A469">
-        <v>8147</v>
-      </c>
-      <c r="B469" t="s">
-        <v>147</v>
-      </c>
-      <c r="C469">
-        <v>2024</v>
-      </c>
-      <c r="D469">
-        <v>11</v>
-      </c>
-      <c r="E469">
-        <v>45</v>
-      </c>
+      <c r="E469"/>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470">
@@ -9453,21 +8848,7 @@
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A479">
-        <v>8150</v>
-      </c>
-      <c r="B479" t="s">
-        <v>147</v>
-      </c>
-      <c r="C479">
-        <v>2024</v>
-      </c>
-      <c r="D479">
-        <v>11</v>
-      </c>
-      <c r="E479">
-        <v>52</v>
-      </c>
+      <c r="E479"/>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480">
@@ -9623,21 +9004,7 @@
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A489">
-        <v>8151</v>
-      </c>
-      <c r="B489" t="s">
-        <v>147</v>
-      </c>
-      <c r="C489">
-        <v>2024</v>
-      </c>
-      <c r="D489">
-        <v>11</v>
-      </c>
-      <c r="E489">
-        <v>64</v>
-      </c>
+      <c r="E489"/>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490">
@@ -9793,21 +9160,7 @@
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A499">
-        <v>8162</v>
-      </c>
-      <c r="B499" t="s">
-        <v>147</v>
-      </c>
-      <c r="C499">
-        <v>2024</v>
-      </c>
-      <c r="D499">
-        <v>11</v>
-      </c>
-      <c r="E499">
-        <v>12</v>
-      </c>
+      <c r="E499"/>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500">
@@ -10099,21 +9452,7 @@
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A517">
-        <v>8182</v>
-      </c>
-      <c r="B517" t="s">
-        <v>147</v>
-      </c>
-      <c r="C517">
-        <v>2024</v>
-      </c>
-      <c r="D517">
-        <v>11</v>
-      </c>
-      <c r="E517">
-        <v>2022</v>
-      </c>
+      <c r="E517"/>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518">
@@ -10286,21 +9625,7 @@
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A528">
-        <v>8185</v>
-      </c>
-      <c r="B528" t="s">
-        <v>147</v>
-      </c>
-      <c r="C528">
-        <v>2024</v>
-      </c>
-      <c r="D528">
-        <v>11</v>
-      </c>
-      <c r="E528">
-        <v>614</v>
-      </c>
+      <c r="E528"/>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529">
@@ -10473,21 +9798,7 @@
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A539">
-        <v>8209</v>
-      </c>
-      <c r="B539" t="s">
-        <v>147</v>
-      </c>
-      <c r="C539">
-        <v>2024</v>
-      </c>
-      <c r="D539">
-        <v>11</v>
-      </c>
-      <c r="E539">
-        <v>915</v>
-      </c>
+      <c r="E539"/>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540">
@@ -10643,21 +9954,7 @@
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A549">
-        <v>8210</v>
-      </c>
-      <c r="B549" t="s">
-        <v>147</v>
-      </c>
-      <c r="C549">
-        <v>2024</v>
-      </c>
-      <c r="D549">
-        <v>11</v>
-      </c>
-      <c r="E549">
-        <v>56</v>
-      </c>
+      <c r="E549"/>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550">
@@ -10830,21 +10127,7 @@
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A560">
-        <v>8281</v>
-      </c>
-      <c r="B560" t="s">
-        <v>147</v>
-      </c>
-      <c r="C560">
-        <v>2024</v>
-      </c>
-      <c r="D560">
-        <v>11</v>
-      </c>
-      <c r="E560">
-        <v>683</v>
-      </c>
+      <c r="E560"/>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561">
@@ -11051,21 +10334,7 @@
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A573">
-        <v>8301</v>
-      </c>
-      <c r="B573" t="s">
-        <v>147</v>
-      </c>
-      <c r="C573">
-        <v>2024</v>
-      </c>
-      <c r="D573">
-        <v>11</v>
-      </c>
-      <c r="E573">
-        <v>414</v>
-      </c>
+      <c r="E573"/>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574">
@@ -11221,21 +10490,7 @@
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A583">
-        <v>8305</v>
-      </c>
-      <c r="B583" t="s">
-        <v>147</v>
-      </c>
-      <c r="C583">
-        <v>2024</v>
-      </c>
-      <c r="D583">
-        <v>11</v>
-      </c>
-      <c r="E583">
-        <v>159</v>
-      </c>
+      <c r="E583"/>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584">
@@ -11391,21 +10646,7 @@
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A593">
-        <v>8312</v>
-      </c>
-      <c r="B593" t="s">
-        <v>147</v>
-      </c>
-      <c r="C593">
-        <v>2024</v>
-      </c>
-      <c r="D593">
-        <v>11</v>
-      </c>
-      <c r="E593">
-        <v>249</v>
-      </c>
+      <c r="E593"/>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594">
@@ -11561,21 +10802,7 @@
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A603">
-        <v>8313</v>
-      </c>
-      <c r="B603" t="s">
-        <v>147</v>
-      </c>
-      <c r="C603">
-        <v>2024</v>
-      </c>
-      <c r="D603">
-        <v>11</v>
-      </c>
-      <c r="E603">
-        <v>61</v>
-      </c>
+      <c r="E603"/>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604">
@@ -11731,21 +10958,7 @@
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A613">
-        <v>8320</v>
-      </c>
-      <c r="B613" t="s">
-        <v>147</v>
-      </c>
-      <c r="C613">
-        <v>2024</v>
-      </c>
-      <c r="D613">
-        <v>11</v>
-      </c>
-      <c r="E613">
-        <v>5</v>
-      </c>
+      <c r="E613"/>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614">
@@ -11901,21 +11114,7 @@
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A623">
-        <v>8321</v>
-      </c>
-      <c r="B623" t="s">
-        <v>147</v>
-      </c>
-      <c r="C623">
-        <v>2024</v>
-      </c>
-      <c r="D623">
-        <v>11</v>
-      </c>
-      <c r="E623">
-        <v>54</v>
-      </c>
+      <c r="E623"/>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624">
@@ -12071,21 +11270,7 @@
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A633">
-        <v>8322</v>
-      </c>
-      <c r="B633" t="s">
-        <v>147</v>
-      </c>
-      <c r="C633">
-        <v>2024</v>
-      </c>
-      <c r="D633">
-        <v>11</v>
-      </c>
-      <c r="E633">
-        <v>713</v>
-      </c>
+      <c r="E633"/>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634">
@@ -12258,21 +11443,7 @@
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A644">
-        <v>8323</v>
-      </c>
-      <c r="B644" t="s">
-        <v>147</v>
-      </c>
-      <c r="C644">
-        <v>2024</v>
-      </c>
-      <c r="D644">
-        <v>11</v>
-      </c>
-      <c r="E644">
-        <v>671</v>
-      </c>
+      <c r="E644"/>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645">
@@ -12445,21 +11616,7 @@
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A655">
-        <v>8459</v>
-      </c>
-      <c r="B655" t="s">
-        <v>147</v>
-      </c>
-      <c r="C655">
-        <v>2024</v>
-      </c>
-      <c r="D655">
-        <v>11</v>
-      </c>
-      <c r="E655">
-        <v>386</v>
-      </c>
+      <c r="E655"/>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656">
@@ -12615,21 +11772,7 @@
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A665">
-        <v>8460</v>
-      </c>
-      <c r="B665" t="s">
-        <v>147</v>
-      </c>
-      <c r="C665">
-        <v>2024</v>
-      </c>
-      <c r="D665">
-        <v>11</v>
-      </c>
-      <c r="E665">
-        <v>31</v>
-      </c>
+      <c r="E665"/>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666">
@@ -12785,21 +11928,7 @@
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A675">
-        <v>8461</v>
-      </c>
-      <c r="B675" t="s">
-        <v>147</v>
-      </c>
-      <c r="C675">
-        <v>2024</v>
-      </c>
-      <c r="D675">
-        <v>11</v>
-      </c>
-      <c r="E675">
-        <v>226</v>
-      </c>
+      <c r="E675"/>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676">
@@ -12955,21 +12084,7 @@
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A685">
-        <v>8462</v>
-      </c>
-      <c r="B685" t="s">
-        <v>147</v>
-      </c>
-      <c r="C685">
-        <v>2024</v>
-      </c>
-      <c r="D685">
-        <v>11</v>
-      </c>
-      <c r="E685">
-        <v>14</v>
-      </c>
+      <c r="E685"/>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686">
@@ -13125,21 +12240,7 @@
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A695">
-        <v>8463</v>
-      </c>
-      <c r="B695" t="s">
-        <v>147</v>
-      </c>
-      <c r="C695">
-        <v>2024</v>
-      </c>
-      <c r="D695">
-        <v>11</v>
-      </c>
-      <c r="E695">
-        <v>84</v>
-      </c>
+      <c r="E695"/>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696">
@@ -13295,21 +12396,7 @@
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A705">
-        <v>8501</v>
-      </c>
-      <c r="B705" t="s">
-        <v>147</v>
-      </c>
-      <c r="C705">
-        <v>2024</v>
-      </c>
-      <c r="D705">
-        <v>11</v>
-      </c>
-      <c r="E705">
-        <v>165</v>
-      </c>
+      <c r="E705"/>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706">
@@ -13465,21 +12552,7 @@
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A715">
-        <v>8502</v>
-      </c>
-      <c r="B715" t="s">
-        <v>147</v>
-      </c>
-      <c r="C715">
-        <v>2024</v>
-      </c>
-      <c r="D715">
-        <v>11</v>
-      </c>
-      <c r="E715">
-        <v>115</v>
-      </c>
+      <c r="E715"/>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716">
@@ -13635,21 +12708,7 @@
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A725">
-        <v>8504</v>
-      </c>
-      <c r="B725" t="s">
-        <v>147</v>
-      </c>
-      <c r="C725">
-        <v>2024</v>
-      </c>
-      <c r="D725">
-        <v>11</v>
-      </c>
-      <c r="E725">
-        <v>28</v>
-      </c>
+      <c r="E725"/>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726">
@@ -13822,21 +12881,7 @@
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A736">
-        <v>8506</v>
-      </c>
-      <c r="B736" t="s">
-        <v>147</v>
-      </c>
-      <c r="C736">
-        <v>2024</v>
-      </c>
-      <c r="D736">
-        <v>11</v>
-      </c>
-      <c r="E736">
-        <v>260</v>
-      </c>
+      <c r="E736"/>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737">
@@ -13992,21 +13037,7 @@
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A746">
-        <v>8507</v>
-      </c>
-      <c r="B746" t="s">
-        <v>147</v>
-      </c>
-      <c r="C746">
-        <v>2024</v>
-      </c>
-      <c r="D746">
-        <v>11</v>
-      </c>
-      <c r="E746">
-        <v>18</v>
-      </c>
+      <c r="E746"/>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747">
@@ -14162,21 +13193,7 @@
       </c>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A756">
-        <v>8508</v>
-      </c>
-      <c r="B756" t="s">
-        <v>147</v>
-      </c>
-      <c r="C756">
-        <v>2024</v>
-      </c>
-      <c r="D756">
-        <v>11</v>
-      </c>
-      <c r="E756">
-        <v>61</v>
-      </c>
+      <c r="E756"/>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757">
@@ -14349,21 +13366,7 @@
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A767">
-        <v>8601</v>
-      </c>
-      <c r="B767" t="s">
-        <v>147</v>
-      </c>
-      <c r="C767">
-        <v>2024</v>
-      </c>
-      <c r="D767">
-        <v>11</v>
-      </c>
-      <c r="E767">
-        <v>298</v>
-      </c>
+      <c r="E767"/>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768">
@@ -14536,21 +13539,7 @@
       </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A778">
-        <v>8602</v>
-      </c>
-      <c r="B778" t="s">
-        <v>147</v>
-      </c>
-      <c r="C778">
-        <v>2024</v>
-      </c>
-      <c r="D778">
-        <v>11</v>
-      </c>
-      <c r="E778">
-        <v>31</v>
-      </c>
+      <c r="E778"/>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779">
@@ -14723,21 +13712,7 @@
       </c>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A789">
-        <v>8603</v>
-      </c>
-      <c r="B789" t="s">
-        <v>147</v>
-      </c>
-      <c r="C789">
-        <v>2024</v>
-      </c>
-      <c r="D789">
-        <v>11</v>
-      </c>
-      <c r="E789">
-        <v>127</v>
-      </c>
+      <c r="E789"/>
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790">
@@ -14893,21 +13868,7 @@
       </c>
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A799">
-        <v>8604</v>
-      </c>
-      <c r="B799" t="s">
-        <v>147</v>
-      </c>
-      <c r="C799">
-        <v>2024</v>
-      </c>
-      <c r="D799">
-        <v>11</v>
-      </c>
-      <c r="E799">
-        <v>9</v>
-      </c>
+      <c r="E799"/>
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800">
@@ -15063,21 +14024,7 @@
       </c>
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A809">
-        <v>8605</v>
-      </c>
-      <c r="B809" t="s">
-        <v>147</v>
-      </c>
-      <c r="C809">
-        <v>2024</v>
-      </c>
-      <c r="D809">
-        <v>11</v>
-      </c>
-      <c r="E809">
-        <v>6</v>
-      </c>
+      <c r="E809"/>
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810">
@@ -15233,21 +14180,7 @@
       </c>
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A819">
-        <v>8606</v>
-      </c>
-      <c r="B819" t="s">
-        <v>147</v>
-      </c>
-      <c r="C819">
-        <v>2024</v>
-      </c>
-      <c r="D819">
-        <v>11</v>
-      </c>
-      <c r="E819">
-        <v>76</v>
-      </c>
+      <c r="E819"/>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820">
@@ -15420,21 +14353,7 @@
       </c>
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A830">
-        <v>8607</v>
-      </c>
-      <c r="B830" t="s">
-        <v>147</v>
-      </c>
-      <c r="C830">
-        <v>2024</v>
-      </c>
-      <c r="D830">
-        <v>11</v>
-      </c>
-      <c r="E830">
-        <v>397</v>
-      </c>
+      <c r="E830"/>
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831">
@@ -15607,21 +14526,7 @@
       </c>
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A841">
-        <v>8609</v>
-      </c>
-      <c r="B841" t="s">
-        <v>147</v>
-      </c>
-      <c r="C841">
-        <v>2024</v>
-      </c>
-      <c r="D841">
-        <v>11</v>
-      </c>
-      <c r="E841">
-        <v>527</v>
-      </c>
+      <c r="E841"/>
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842">
@@ -15777,21 +14682,7 @@
       </c>
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A851">
-        <v>8610</v>
-      </c>
-      <c r="B851" t="s">
-        <v>147</v>
-      </c>
-      <c r="C851">
-        <v>2024</v>
-      </c>
-      <c r="D851">
-        <v>11</v>
-      </c>
-      <c r="E851">
-        <v>27</v>
-      </c>
+      <c r="E851"/>
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852">
@@ -15964,21 +14855,7 @@
       </c>
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A862">
-        <v>8701</v>
-      </c>
-      <c r="B862" t="s">
-        <v>147</v>
-      </c>
-      <c r="C862">
-        <v>2024</v>
-      </c>
-      <c r="D862">
-        <v>11</v>
-      </c>
-      <c r="E862">
-        <v>89</v>
-      </c>
+      <c r="E862"/>
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863">
@@ -16134,21 +15011,7 @@
       </c>
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A872">
-        <v>8702</v>
-      </c>
-      <c r="B872" t="s">
-        <v>147</v>
-      </c>
-      <c r="C872">
-        <v>2024</v>
-      </c>
-      <c r="D872">
-        <v>11</v>
-      </c>
-      <c r="E872">
-        <v>28</v>
-      </c>
+      <c r="E872"/>
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873">
@@ -16321,21 +15184,7 @@
       </c>
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A883">
-        <v>8710</v>
-      </c>
-      <c r="B883" t="s">
-        <v>147</v>
-      </c>
-      <c r="C883">
-        <v>2024</v>
-      </c>
-      <c r="D883">
-        <v>11</v>
-      </c>
-      <c r="E883">
-        <v>216</v>
-      </c>
+      <c r="E883"/>
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A884">
@@ -16508,21 +15357,7 @@
       </c>
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A894">
-        <v>8711</v>
-      </c>
-      <c r="B894" t="s">
-        <v>147</v>
-      </c>
-      <c r="C894">
-        <v>2024</v>
-      </c>
-      <c r="D894">
-        <v>11</v>
-      </c>
-      <c r="E894">
-        <v>387</v>
-      </c>
+      <c r="E894"/>
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A895">
@@ -16695,21 +15530,7 @@
       </c>
     </row>
     <row r="905" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A905">
-        <v>8712</v>
-      </c>
-      <c r="B905" t="s">
-        <v>147</v>
-      </c>
-      <c r="C905">
-        <v>2024</v>
-      </c>
-      <c r="D905">
-        <v>11</v>
-      </c>
-      <c r="E905">
-        <v>976</v>
-      </c>
+      <c r="E905"/>
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A906">
@@ -16865,21 +15686,7 @@
       </c>
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A915">
-        <v>8801</v>
-      </c>
-      <c r="B915" t="s">
-        <v>147</v>
-      </c>
-      <c r="C915">
-        <v>2024</v>
-      </c>
-      <c r="D915">
-        <v>11</v>
-      </c>
-      <c r="E915">
-        <v>182</v>
-      </c>
+      <c r="E915"/>
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A916">
@@ -17188,21 +15995,7 @@
       </c>
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A934">
-        <v>8803</v>
-      </c>
-      <c r="B934" t="s">
-        <v>147</v>
-      </c>
-      <c r="C934">
-        <v>2024</v>
-      </c>
-      <c r="D934">
-        <v>11</v>
-      </c>
-      <c r="E934">
-        <v>314</v>
-      </c>
+      <c r="E934"/>
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A935">
@@ -17358,21 +16151,7 @@
       </c>
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A944">
-        <v>8804</v>
-      </c>
-      <c r="B944" t="s">
-        <v>147</v>
-      </c>
-      <c r="C944">
-        <v>2024</v>
-      </c>
-      <c r="D944">
-        <v>11</v>
-      </c>
-      <c r="E944">
-        <v>173</v>
-      </c>
+      <c r="E944"/>
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A945">
@@ -17528,21 +16307,7 @@
       </c>
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A954">
-        <v>8805</v>
-      </c>
-      <c r="B954" t="s">
-        <v>147</v>
-      </c>
-      <c r="C954">
-        <v>2024</v>
-      </c>
-      <c r="D954">
-        <v>11</v>
-      </c>
-      <c r="E954">
-        <v>280</v>
-      </c>
+      <c r="E954"/>
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A955">
@@ -17698,21 +16463,7 @@
       </c>
     </row>
     <row r="964" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A964">
-        <v>8806</v>
-      </c>
-      <c r="B964" t="s">
-        <v>147</v>
-      </c>
-      <c r="C964">
-        <v>2024</v>
-      </c>
-      <c r="D964">
-        <v>11</v>
-      </c>
-      <c r="E964">
-        <v>173</v>
-      </c>
+      <c r="E964"/>
     </row>
     <row r="965" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A965">
@@ -17868,21 +16619,7 @@
       </c>
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A974">
-        <v>8807</v>
-      </c>
-      <c r="B974" t="s">
-        <v>147</v>
-      </c>
-      <c r="C974">
-        <v>2024</v>
-      </c>
-      <c r="D974">
-        <v>11</v>
-      </c>
-      <c r="E974">
-        <v>44</v>
-      </c>
+      <c r="E974"/>
     </row>
     <row r="975" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A975">
@@ -18038,21 +16775,7 @@
       </c>
     </row>
     <row r="984" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A984">
-        <v>8808</v>
-      </c>
-      <c r="B984" t="s">
-        <v>147</v>
-      </c>
-      <c r="C984">
-        <v>2024</v>
-      </c>
-      <c r="D984">
-        <v>11</v>
-      </c>
-      <c r="E984">
-        <v>63</v>
-      </c>
+      <c r="E984"/>
     </row>
     <row r="985" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A985">
@@ -18208,21 +16931,7 @@
       </c>
     </row>
     <row r="994" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A994">
-        <v>8810</v>
-      </c>
-      <c r="B994" t="s">
-        <v>147</v>
-      </c>
-      <c r="C994">
-        <v>2024</v>
-      </c>
-      <c r="D994">
-        <v>11</v>
-      </c>
-      <c r="E994">
-        <v>23</v>
-      </c>
+      <c r="E994"/>
     </row>
     <row r="995" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A995">
@@ -18378,21 +17087,7 @@
       </c>
     </row>
     <row r="1004" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1004">
-        <v>8811</v>
-      </c>
-      <c r="B1004" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1004">
-        <v>2024</v>
-      </c>
-      <c r="D1004">
-        <v>11</v>
-      </c>
-      <c r="E1004">
-        <v>74</v>
-      </c>
+      <c r="E1004"/>
     </row>
     <row r="1005" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1005">
@@ -18548,21 +17243,7 @@
       </c>
     </row>
     <row r="1014" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1014">
-        <v>8812</v>
-      </c>
-      <c r="B1014" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1014">
-        <v>2024</v>
-      </c>
-      <c r="D1014">
-        <v>11</v>
-      </c>
-      <c r="E1014">
-        <v>8</v>
-      </c>
+      <c r="E1014"/>
     </row>
     <row r="1015" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1015">
@@ -18718,21 +17399,7 @@
       </c>
     </row>
     <row r="1024" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1024">
-        <v>8814</v>
-      </c>
-      <c r="B1024" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1024">
-        <v>2024</v>
-      </c>
-      <c r="D1024">
-        <v>11</v>
-      </c>
-      <c r="E1024">
-        <v>78</v>
-      </c>
+      <c r="E1024"/>
     </row>
     <row r="1025" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1025">
@@ -19041,21 +17708,7 @@
       </c>
     </row>
     <row r="1043" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1043">
-        <v>8816</v>
-      </c>
-      <c r="B1043" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1043">
-        <v>2024</v>
-      </c>
-      <c r="D1043">
-        <v>11</v>
-      </c>
-      <c r="E1043">
-        <v>62</v>
-      </c>
+      <c r="E1043"/>
     </row>
     <row r="1044" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1044">
@@ -19211,21 +17864,7 @@
       </c>
     </row>
     <row r="1053" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1053">
-        <v>8817</v>
-      </c>
-      <c r="B1053" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1053">
-        <v>2024</v>
-      </c>
-      <c r="D1053">
-        <v>11</v>
-      </c>
-      <c r="E1053">
-        <v>54</v>
-      </c>
+      <c r="E1053"/>
     </row>
     <row r="1054" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1054">
@@ -19381,21 +18020,7 @@
       </c>
     </row>
     <row r="1063" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1063">
-        <v>8818</v>
-      </c>
-      <c r="B1063" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1063">
-        <v>2024</v>
-      </c>
-      <c r="D1063">
-        <v>11</v>
-      </c>
-      <c r="E1063">
-        <v>77</v>
-      </c>
+      <c r="E1063"/>
     </row>
     <row r="1064" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1064">
@@ -19551,21 +18176,7 @@
       </c>
     </row>
     <row r="1073" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1073">
-        <v>8819</v>
-      </c>
-      <c r="B1073" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1073">
-        <v>2024</v>
-      </c>
-      <c r="D1073">
-        <v>11</v>
-      </c>
-      <c r="E1073">
-        <v>115</v>
-      </c>
+      <c r="E1073"/>
     </row>
     <row r="1074" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1074">
@@ -19721,21 +18332,7 @@
       </c>
     </row>
     <row r="1083" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1083">
-        <v>8820</v>
-      </c>
-      <c r="B1083" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1083">
-        <v>2024</v>
-      </c>
-      <c r="D1083">
-        <v>11</v>
-      </c>
-      <c r="E1083">
-        <v>45</v>
-      </c>
+      <c r="E1083"/>
     </row>
     <row r="1084" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1084">
@@ -19993,21 +18590,7 @@
       </c>
     </row>
     <row r="1099" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1099">
-        <v>8881</v>
-      </c>
-      <c r="B1099" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1099">
-        <v>2024</v>
-      </c>
-      <c r="D1099">
-        <v>11</v>
-      </c>
-      <c r="E1099">
-        <v>196</v>
-      </c>
+      <c r="E1099"/>
     </row>
     <row r="1100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1100">
@@ -20163,21 +18746,7 @@
       </c>
     </row>
     <row r="1109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1109">
-        <v>8882</v>
-      </c>
-      <c r="B1109" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1109">
-        <v>2024</v>
-      </c>
-      <c r="D1109">
-        <v>11</v>
-      </c>
-      <c r="E1109">
-        <v>205</v>
-      </c>
+      <c r="E1109"/>
     </row>
     <row r="1110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1110">
@@ -20333,21 +18902,7 @@
       </c>
     </row>
     <row r="1119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1119">
-        <v>8885</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1119">
-        <v>2024</v>
-      </c>
-      <c r="D1119">
-        <v>11</v>
-      </c>
-      <c r="E1119">
-        <v>69</v>
-      </c>
+      <c r="E1119"/>
     </row>
     <row r="1120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1120">
@@ -20503,21 +19058,7 @@
       </c>
     </row>
     <row r="1129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1129">
-        <v>8887</v>
-      </c>
-      <c r="B1129" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1129">
-        <v>2024</v>
-      </c>
-      <c r="D1129">
-        <v>11</v>
-      </c>
-      <c r="E1129">
-        <v>172</v>
-      </c>
+      <c r="E1129"/>
     </row>
     <row r="1130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1130">
@@ -20673,21 +19214,7 @@
       </c>
     </row>
     <row r="1139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1139">
-        <v>8888</v>
-      </c>
-      <c r="B1139" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1139">
-        <v>2024</v>
-      </c>
-      <c r="D1139">
-        <v>11</v>
-      </c>
-      <c r="E1139">
-        <v>29</v>
-      </c>
+      <c r="E1139"/>
     </row>
     <row r="1140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1140">
@@ -20843,21 +19370,7 @@
       </c>
     </row>
     <row r="1149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1149">
-        <v>8890</v>
-      </c>
-      <c r="B1149" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1149">
-        <v>2024</v>
-      </c>
-      <c r="D1149">
-        <v>11</v>
-      </c>
-      <c r="E1149">
-        <v>13</v>
-      </c>
+      <c r="E1149"/>
     </row>
     <row r="1150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1150">
@@ -21013,21 +19526,7 @@
       </c>
     </row>
     <row r="1159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1159">
-        <v>8892</v>
-      </c>
-      <c r="B1159" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1159">
-        <v>2024</v>
-      </c>
-      <c r="D1159">
-        <v>11</v>
-      </c>
-      <c r="E1159">
-        <v>84</v>
-      </c>
+      <c r="E1159"/>
     </row>
     <row r="1160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1160">
@@ -21183,21 +19682,7 @@
       </c>
     </row>
     <row r="1169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1169">
-        <v>8893</v>
-      </c>
-      <c r="B1169" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1169">
-        <v>2024</v>
-      </c>
-      <c r="D1169">
-        <v>11</v>
-      </c>
-      <c r="E1169">
-        <v>29</v>
-      </c>
+      <c r="E1169"/>
     </row>
     <row r="1170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1170">
@@ -21353,21 +19838,7 @@
       </c>
     </row>
     <row r="1179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1179">
-        <v>8894</v>
-      </c>
-      <c r="B1179" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1179">
-        <v>2024</v>
-      </c>
-      <c r="D1179">
-        <v>11</v>
-      </c>
-      <c r="E1179">
-        <v>137</v>
-      </c>
+      <c r="E1179"/>
     </row>
     <row r="1180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1180">
@@ -21523,21 +19994,7 @@
       </c>
     </row>
     <row r="1189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1189">
-        <v>8895</v>
-      </c>
-      <c r="B1189" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1189">
-        <v>2024</v>
-      </c>
-      <c r="D1189">
-        <v>11</v>
-      </c>
-      <c r="E1189">
-        <v>21</v>
-      </c>
+      <c r="E1189"/>
     </row>
     <row r="1190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1190">
@@ -21693,21 +20150,7 @@
       </c>
     </row>
     <row r="1199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1199">
-        <v>8896</v>
-      </c>
-      <c r="B1199" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1199">
-        <v>2024</v>
-      </c>
-      <c r="D1199">
-        <v>11</v>
-      </c>
-      <c r="E1199">
-        <v>106</v>
-      </c>
+      <c r="E1199"/>
     </row>
     <row r="1200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1200">
@@ -21863,21 +20306,7 @@
       </c>
     </row>
     <row r="1209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1209">
-        <v>8897</v>
-      </c>
-      <c r="B1209" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1209">
-        <v>2024</v>
-      </c>
-      <c r="D1209">
-        <v>11</v>
-      </c>
-      <c r="E1209">
-        <v>76</v>
-      </c>
+      <c r="E1209"/>
     </row>
     <row r="1210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1210">
@@ -22033,21 +20462,7 @@
       </c>
     </row>
     <row r="1219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1219">
-        <v>8898</v>
-      </c>
-      <c r="B1219" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1219">
-        <v>2024</v>
-      </c>
-      <c r="D1219">
-        <v>11</v>
-      </c>
-      <c r="E1219">
-        <v>21</v>
-      </c>
+      <c r="E1219"/>
     </row>
     <row r="1220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1220">
@@ -22203,21 +20618,7 @@
       </c>
     </row>
     <row r="1229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1229">
-        <v>8899</v>
-      </c>
-      <c r="B1229" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1229">
-        <v>2024</v>
-      </c>
-      <c r="D1229">
-        <v>11</v>
-      </c>
-      <c r="E1229">
-        <v>109</v>
-      </c>
+      <c r="E1229"/>
     </row>
     <row r="1230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1230">
@@ -22390,21 +20791,7 @@
       </c>
     </row>
     <row r="1240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1240">
-        <v>8901</v>
-      </c>
-      <c r="B1240" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1240">
-        <v>2024</v>
-      </c>
-      <c r="D1240">
-        <v>11</v>
-      </c>
-      <c r="E1240">
-        <v>400</v>
-      </c>
+      <c r="E1240"/>
     </row>
     <row r="1241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1241">
@@ -22577,21 +20964,7 @@
       </c>
     </row>
     <row r="1251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1251">
-        <v>8902</v>
-      </c>
-      <c r="B1251" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1251">
-        <v>2024</v>
-      </c>
-      <c r="D1251">
-        <v>11</v>
-      </c>
-      <c r="E1251">
-        <v>92</v>
-      </c>
+      <c r="E1251"/>
     </row>
     <row r="1252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1252">
@@ -22764,21 +21137,7 @@
       </c>
     </row>
     <row r="1262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1262">
-        <v>8903</v>
-      </c>
-      <c r="B1262" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1262">
-        <v>2024</v>
-      </c>
-      <c r="D1262">
-        <v>11</v>
-      </c>
-      <c r="E1262">
-        <v>74</v>
-      </c>
+      <c r="E1262"/>
     </row>
     <row r="1263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1263">
